--- a/testing_student_sheet.xlsx
+++ b/testing_student_sheet.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\sem 4 projects\group\Edunect\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427DCB30-6C89-486E-9D31-64311295BAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -410,8 +416,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,22 +468,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf8cbad"/>
+        <fgColor rgb="FFF8CBAD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdae3f3"/>
+        <fgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf9c0b5"/>
+        <fgColor rgb="FFF9C0B5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc5e0b4"/>
+        <fgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
   </fills>
@@ -510,70 +515,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -584,10 +592,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -625,71 +633,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,7 +725,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -740,11 +748,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -753,13 +761,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -769,7 +777,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -778,7 +786,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -787,7 +795,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -795,10 +803,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -863,25 +871,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="15" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="62.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="66.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="33.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="87.75">
+    <row r="1" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="26.25">
+    <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>23002170220003</v>
       </c>
@@ -921,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="26.25">
+    <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>23002170220011</v>
       </c>
@@ -941,7 +951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>23002170120006</v>
       </c>
@@ -961,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="26.25">
+    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>23002170120010</v>
       </c>
@@ -981,7 +991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="26.25">
+    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>23002170120011</v>
       </c>
@@ -1001,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="46.5">
+    <row r="7" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>23002171220005</v>
       </c>
@@ -1021,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="46.5">
+    <row r="8" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>23002170120016</v>
       </c>
@@ -1041,7 +1051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="26.25">
+    <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>23002170120017</v>
       </c>
@@ -1061,7 +1071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="26.25">
+    <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>23002170120014</v>
       </c>
@@ -1081,7 +1091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="26.25">
+    <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>23002170220005</v>
       </c>
@@ -1101,7 +1111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="46.5">
+    <row r="12" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>23002170120012</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="26.25">
+    <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>23002171220011</v>
       </c>
@@ -1141,7 +1151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="46.5">
+    <row r="14" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>23002170220013</v>
       </c>
@@ -1161,7 +1171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="46.5">
+    <row r="15" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>23002170120020</v>
       </c>
@@ -1181,7 +1191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>23002170120008</v>
       </c>
@@ -1201,7 +1211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>23002170220010</v>
       </c>
@@ -1221,7 +1231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>23002170120015</v>
       </c>
@@ -1241,7 +1251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>23002171220010</v>
       </c>
@@ -1261,7 +1271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>23002170120003</v>
       </c>
@@ -1281,7 +1291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>23002170120005</v>
       </c>
@@ -1301,7 +1311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>23002170120019</v>
       </c>
@@ -1321,7 +1331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>23002170220012</v>
       </c>
@@ -1341,7 +1351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>23002170220015</v>
       </c>
@@ -1361,7 +1371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>23002171220004</v>
       </c>
@@ -1381,7 +1391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>23002170120002</v>
       </c>
@@ -1401,7 +1411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>23002170220001</v>
       </c>
@@ -1421,7 +1431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>23002171220020</v>
       </c>
@@ -1441,7 +1451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>23002170120013</v>
       </c>
@@ -1461,7 +1471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>23002171220014</v>
       </c>
@@ -1481,7 +1491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>23002171220008</v>
       </c>
@@ -1501,7 +1511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>23002171220019</v>
       </c>
@@ -1521,7 +1531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>23002171220009</v>
       </c>
@@ -1541,7 +1551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>23002171220017</v>
       </c>
@@ -1561,7 +1571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>23002171220012</v>
       </c>
@@ -1581,7 +1591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>23002170120004</v>
       </c>
@@ -1601,7 +1611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>23002171220015</v>
       </c>
@@ -1621,7 +1631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>23002170220006</v>
       </c>
@@ -1641,7 +1651,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>23002171220007</v>
       </c>
@@ -1661,7 +1671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>23002170120018</v>
       </c>
@@ -1681,7 +1691,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>23002170220004</v>
       </c>
@@ -1701,7 +1711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>23002170220009</v>
       </c>
@@ -1721,7 +1731,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>23002170220002</v>
       </c>
@@ -1741,7 +1751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>23002171220016</v>
       </c>
@@ -1761,7 +1771,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>23002171220003</v>
       </c>
@@ -1781,7 +1791,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>23002171220002</v>
       </c>
@@ -1801,7 +1811,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>23002171220022</v>
       </c>
@@ -1821,7 +1831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>23002171220021</v>
       </c>
@@ -1841,7 +1851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>23002170220014</v>
       </c>
@@ -1861,7 +1871,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>23002171220001</v>
       </c>
@@ -1881,7 +1891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>23002171220013</v>
       </c>
@@ -1901,7 +1911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>23002170120009</v>
       </c>
@@ -1921,7 +1931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>23002170220007</v>
       </c>
@@ -1941,7 +1951,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>23002170120007</v>
       </c>
@@ -1961,7 +1971,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>23002170220008</v>
       </c>
@@ -1981,7 +1991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>23002171220006</v>
       </c>
@@ -2001,7 +2011,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>23002170120001</v>
       </c>
@@ -2021,7 +2031,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>22002171220081</v>
       </c>
@@ -2041,7 +2051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>23002171220018</v>
       </c>
